--- a/Validierung/coverage/gui_coverage.xlsx
+++ b/Validierung/coverage/gui_coverage.xlsx
@@ -887,11 +887,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="384269016"/>
-        <c:axId val="384269800"/>
+        <c:axId val="313731320"/>
+        <c:axId val="313724264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384269016"/>
+        <c:axId val="313731320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +934,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384269800"/>
+        <c:crossAx val="313724264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,9 +942,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384269800"/>
+        <c:axId val="313724264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -993,7 +994,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384269016"/>
+        <c:crossAx val="313731320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
